--- a/DC_Lab5.xlsx
+++ b/DC_Lab5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\dc\dc-lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E1124-6865-4A65-A926-52181E1CF2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642E3228-333F-4ADB-B700-8D8D6A227D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Test Number</t>
   </si>
@@ -58,13 +59,47 @@
   </si>
   <si>
     <t>τ</t>
+  </si>
+  <si>
+    <t>Number of Vertices</t>
+  </si>
+  <si>
+    <t>Serial Floyd Algorithm</t>
+  </si>
+  <si>
+    <t>Parallel Floyd Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>Speed Up</t>
+  </si>
+  <si>
+    <t>2 processors</t>
+  </si>
+  <si>
+    <t>4 processors</t>
+  </si>
+  <si>
+    <t>8 processors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -157,8 +193,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,4 +676,319 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CED016-236E-4EB5-A5EF-F08D22F04A19}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.4E-5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="7">
+        <f>C4/D4</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="G4" s="7">
+        <f>C4/F4</f>
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2.1800000000000001E-4</v>
+      </c>
+      <c r="I4" s="7">
+        <f>C4/H4</f>
+        <v>6.4220183486238522E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75425600000000004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.33877200000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E10" si="0">C5/D5</f>
+        <v>2.2264413824046851</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.22695100000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G10" si="1">C5/F5</f>
+        <v>3.3234310489929544</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.15368999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I10" si="2">C5/H5</f>
+        <v>4.907645259938838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>600</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.299188</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.596329</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1786429974057944</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.39096399999999998</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3230374152095847</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26433699999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9148927316266739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>700</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.1177730000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.91309899999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3193246296403789</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.57006500000000004</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>3.714967591415014</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.41589300000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0921102302755754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>800</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.1552280000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.375397</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2940489182396067</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.89468499999999995</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5266356315351217</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.61859600000000003</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>5.1006278734424404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>900</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.4191649999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.0988720000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1054952374418257</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.24197</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5581898113480999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.87888699999999997</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0281378607261225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6.1230520000000004</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.8628900000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1387660720460793</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.7343139999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5305325333244157</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.2257610000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9953065891311601</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>